--- a/Code/SampleRun_Environment_Solar/600Scens/Results_600FINAL.xlsx
+++ b/Code/SampleRun_Environment_Solar/600Scens/Results_600FINAL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Dokumente\A_Uni\HiWi\ArticleSubgradient\Code\SampleRun_Environment_Solar\600Scens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B87B1F-000C-4ECA-9185-D9A7F99104DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548D1C03-22DD-492E-A5EB-A1073D1A68B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="combined_results_600" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Omega</t>
   </si>
@@ -106,6 +106,21 @@
   </si>
   <si>
     <t>tol07: (6,2), (6,5)</t>
+  </si>
+  <si>
+    <t>Median of Naive Gap</t>
+  </si>
+  <si>
+    <t>tol 0.01</t>
+  </si>
+  <si>
+    <t>tol 0.03</t>
+  </si>
+  <si>
+    <t>tol 0.05</t>
+  </si>
+  <si>
+    <t>tol 0.07</t>
   </si>
 </sst>
 </file>
@@ -505,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA29" sqref="AA29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17:R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1258,7 +1273,7 @@
         <v>245.19597999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>600</v>
       </c>
@@ -1301,8 +1316,11 @@
       <c r="O17">
         <v>245.19597999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>600</v>
       </c>
@@ -1345,8 +1363,15 @@
       <c r="O18">
         <v>245.19597999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q18" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18">
+        <f>MEDIAN(H6,H12,H14,H24,H31,H37,H42,H46,H54,H61,H67,H72,H78,H84,H90,H96,H102,H108,H114,H120)</f>
+        <v>7.0440000000000003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>600</v>
       </c>
@@ -1389,8 +1414,15 @@
       <c r="O19">
         <v>245.19597999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q19" t="s">
+        <v>22</v>
+      </c>
+      <c r="R19">
+        <f>MEDIAN(H126,H132,H139,H144,H150,H156,H163,H168,H174,H179,H186,H192,H198,H204,H210,H216,H222,H228,H234,H240)</f>
+        <v>0.12468499999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>12</v>
       </c>
@@ -1436,8 +1468,15 @@
       <c r="O20">
         <v>245.48647</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q20" t="s">
+        <v>23</v>
+      </c>
+      <c r="R20">
+        <f>MEDIAN(H246,H252,H258,H264,H270,H276,H282,H288,H294,H300,H306,H312,H318,H324,H330,H336,H342,H348,H354,H360)</f>
+        <v>0.15481499999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>600</v>
       </c>
@@ -1480,8 +1519,15 @@
       <c r="O21">
         <v>245.48647</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q21" t="s">
+        <v>24</v>
+      </c>
+      <c r="R21">
+        <f>MEDIAN(H366,H372,H378,H384,H390,H396,H402,H408,H414,H420,H426,H432,H438,H444,H450,H456,H462,H468,H474,H480)</f>
+        <v>0.17174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>600</v>
       </c>
@@ -1525,7 +1571,7 @@
         <v>245.48647</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>600</v>
       </c>
@@ -1569,7 +1615,7 @@
         <v>245.48647</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>600</v>
       </c>
@@ -1613,7 +1659,7 @@
         <v>245.48647</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>600</v>
       </c>
@@ -1657,7 +1703,7 @@
         <v>245.48647</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>13</v>
       </c>
@@ -1704,7 +1750,7 @@
         <v>249.33467999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>600</v>
       </c>
@@ -1748,7 +1794,7 @@
         <v>249.33467999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>600</v>
       </c>
@@ -1792,7 +1838,7 @@
         <v>249.33467999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>600</v>
       </c>
@@ -1836,7 +1882,7 @@
         <v>249.33467999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>600</v>
       </c>
@@ -1880,7 +1926,7 @@
         <v>249.33467999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>600</v>
       </c>
@@ -1924,7 +1970,7 @@
         <v>249.33467999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>14</v>
       </c>
